--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13290" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13290" windowHeight="4200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="order_number" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="VerifyBuildVersion" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:I24"/>
+  <oleSize ref="A1:K12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>sl num</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>testroot62@gmail.com</t>
+  </si>
+  <si>
+    <t>890436591@</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,9 +170,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,16 +638,13 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10">
-        <v>8904365917</v>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8904365917</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
